--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4043.151909805144</v>
+        <v>-4141.347995272436</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25694028.27108956</v>
+        <v>25841374.97493689</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10945934.67429402</v>
+        <v>11090349.17873481</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4284998.594627231</v>
+        <v>4176798.440022146</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>352.5438066232189</v>
       </c>
       <c r="C2" t="n">
-        <v>255.146716156443</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -789,7 +791,7 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T3" t="n">
-        <v>128.8768572327043</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U3" t="n">
         <v>174.5731815300314</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>122.7239714707873</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>147.4972522940571</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>215.2285648127963</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>74.06216992684948</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194965</v>
+        <v>41.31829566194966</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>13.94516649828809</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>159.1000412385906</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>150.6305900834238</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>42.84621917523827</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>66.92632766929671</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>34.86322264854231</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>156.5603386732361</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>203.1869771812474</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>85.78580588144442</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>209.5867542297959</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>373.7197913037078</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>113.1395912237401</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>32.36836981040612</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1841,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>11.42899719143395</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>394.519488585689</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C19" t="n">
-        <v>41.72792284539968</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>139.7052699552563</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>106.0626366504663</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170431</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>35.16791248334739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>84.85899356878446</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7884964950064</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>424.1207532378707</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>46.68188763447793</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>177.7529927233534</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>77.85091567498334</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>156.5603386732361</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>144.0017161046901</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>153.386342264429</v>
       </c>
       <c r="V31" t="n">
-        <v>5.64492333244486</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>181.5446809651343</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>240.7036592339657</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.49477739856609</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>73.71751164971781</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>373.7197913037078</v>
+        <v>396.3661498466034</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>208.8393742563289</v>
+        <v>260.2915433175625</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3503,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>374.0142720497965</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>120.3716221032459</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3667,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>17.26579423647301</v>
       </c>
       <c r="F40" t="n">
-        <v>2.723061212908523</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>373.3071698245765</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>90.2111533379405</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>29.41206276533559</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0765084323517</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>181.0765084323517</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>159.0795671480839</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>121.9313113209525</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4107,22 +4109,22 @@
         <v>62.82088317610075</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>128.8768572327044</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>18.69994113782448</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>115.4012337133193</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>159.4921886272153</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1437.961127397434</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="C2" t="n">
-        <v>1180.237171683855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D2" t="n">
-        <v>751.6554974211238</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
         <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4358,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.961127397434</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="X2" t="n">
-        <v>1437.961127397434</v>
+        <v>798.7514368497835</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.961127397434</v>
+        <v>390.465313149437</v>
       </c>
     </row>
     <row r="3">
@@ -4410,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9019468393491</v>
+        <v>386.4693996828083</v>
       </c>
       <c r="C4" t="n">
-        <v>464.9019468393491</v>
+        <v>386.4693996828083</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>386.4693996828083</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>386.4693996828083</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>386.4693996828083</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4492,19 +4494,19 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>761.43086230084</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4515,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1548.196306551067</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1302.316860129522</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1023.883859382627</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>736.9283512530576</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>464.9019468393491</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>464.9019468393491</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y4" t="n">
-        <v>464.9019468393491</v>
+        <v>386.4693996828083</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="C5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="D5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="E5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4598,19 +4600,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1075.344177331261</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W5" t="n">
-        <v>670.4887227422939</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X5" t="n">
-        <v>251.3462593216046</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y5" t="n">
-        <v>251.3462593216046</v>
+        <v>435.7582893512044</v>
       </c>
     </row>
     <row r="6">
@@ -4623,7 +4625,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D6" t="n">
         <v>338.5686635760967</v>
@@ -4632,10 +4634,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539589</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4647,19 +4649,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>194.6507809638211</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="C7" t="n">
-        <v>194.6507809638211</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D7" t="n">
-        <v>194.6507809638211</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>194.6507809638211</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4729,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>613.9632093877782</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="C8" t="n">
-        <v>613.9632093877782</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D8" t="n">
-        <v>613.9632093877782</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E8" t="n">
-        <v>613.9632093877782</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F8" t="n">
-        <v>186.0957797969859</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L8" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M8" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N8" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4829,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W8" t="n">
-        <v>1033.105672808467</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X8" t="n">
-        <v>613.9632093877782</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="Y8" t="n">
-        <v>613.9632093877782</v>
+        <v>323.4906125312521</v>
       </c>
     </row>
     <row r="9">
@@ -4860,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4869,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4884,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L9" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="M9" t="n">
-        <v>384.5656667282782</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>672.6790347687931</v>
+        <v>613.8890703687</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1173232520181</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D10" t="n">
-        <v>500.1173232520181</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E10" t="n">
-        <v>464.9019468393491</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F10" t="n">
-        <v>288.1948928011053</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4966,16 +4968,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1235.38760622724</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4984,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T10" t="n">
-        <v>1429.886162364244</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U10" t="n">
-        <v>1151.45316161735</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V10" t="n">
-        <v>864.4976534877803</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W10" t="n">
-        <v>864.4976534877803</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X10" t="n">
-        <v>864.4976534877803</v>
+        <v>613.8890703687</v>
       </c>
       <c r="Y10" t="n">
-        <v>864.4976534877803</v>
+        <v>613.8890703687</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.974446717864</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.974446717864</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D11" t="n">
-        <v>890.3927724551322</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E11" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F11" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G11" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H11" t="n">
         <v>33.94366860160834</v>
@@ -5039,22 +5041,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K11" t="n">
-        <v>874.0494664914149</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="L11" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M11" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N11" t="n">
-        <v>1107.976466382457</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O11" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P11" t="n">
         <v>1107.976466382457</v>
@@ -5069,22 +5071,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T11" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U11" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V11" t="n">
-        <v>1477.116202953456</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W11" t="n">
-        <v>1318.974446717864</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X11" t="n">
-        <v>1318.974446717864</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y11" t="n">
-        <v>1318.974446717864</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="12">
@@ -5097,7 +5099,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C12" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D12" t="n">
         <v>338.5686635760967</v>
@@ -5106,10 +5108,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F12" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G12" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H12" t="n">
         <v>33.94366860160834</v>
@@ -5121,19 +5123,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L12" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M12" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N12" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O12" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5173,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209.2559470001092</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C13" t="n">
-        <v>122.603617826933</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D13" t="n">
-        <v>122.603617826933</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E13" t="n">
-        <v>122.603617826933</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F13" t="n">
-        <v>122.603617826933</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G13" t="n">
-        <v>122.603617826933</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H13" t="n">
         <v>122.603617826933</v>
@@ -5203,13 +5205,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L13" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M13" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N13" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O13" t="n">
         <v>1181.483761245743</v>
@@ -5221,28 +5223,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R13" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S13" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T13" t="n">
-        <v>1292.062614956869</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U13" t="n">
-        <v>1013.629614209975</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V13" t="n">
-        <v>726.6741060804052</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="W13" t="n">
-        <v>454.6477016666967</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="X13" t="n">
-        <v>209.2559470001092</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.2559470001092</v>
+        <v>1304.820447932477</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1697.183430080417</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="C14" t="n">
-        <v>1268.601755817686</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="D14" t="n">
-        <v>840.020081554954</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="E14" t="n">
-        <v>411.4384072922223</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="F14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G14" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H14" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5279,22 +5281,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N14" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O14" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q14" t="n">
         <v>1528.02936532736</v>
@@ -5303,25 +5305,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U14" t="n">
-        <v>1697.183430080417</v>
+        <v>1499.249140886739</v>
       </c>
       <c r="V14" t="n">
-        <v>1697.183430080417</v>
+        <v>1136.632190820565</v>
       </c>
       <c r="W14" t="n">
-        <v>1697.183430080417</v>
+        <v>731.7767362315986</v>
       </c>
       <c r="X14" t="n">
-        <v>1697.183430080417</v>
+        <v>731.7767362315986</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.183430080417</v>
+        <v>323.4906125312521</v>
       </c>
     </row>
     <row r="15">
@@ -5334,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5343,28 +5345,28 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J15" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K15" t="n">
-        <v>804.6185656731816</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L15" t="n">
-        <v>1159.957753041174</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M15" t="n">
-        <v>1159.957753041174</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N15" t="n">
         <v>1159.957753041174</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.1040494299291</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C16" t="n">
-        <v>413.1040494299291</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D16" t="n">
-        <v>413.1040494299291</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E16" t="n">
-        <v>243.3460456806664</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F16" t="n">
-        <v>66.63899164242261</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G16" t="n">
         <v>33.94366860160834</v>
@@ -5440,19 +5442,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L16" t="n">
-        <v>33.94366860160834</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M16" t="n">
-        <v>453.9965675465116</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N16" t="n">
-        <v>874.0494664914149</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O16" t="n">
-        <v>1293.718715717196</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P16" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
@@ -5473,13 +5475,13 @@
         <v>885.9154747824084</v>
       </c>
       <c r="W16" t="n">
-        <v>885.9154747824084</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X16" t="n">
-        <v>640.5237201158209</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y16" t="n">
-        <v>413.1040494299291</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>446.8859415858535</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="C17" t="n">
-        <v>446.8859415858535</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="D17" t="n">
-        <v>435.3414999783445</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E17" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F17" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G17" t="n">
         <v>33.94366860160834</v>
@@ -5513,28 +5515,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
+        <v>33.94366860160834</v>
+      </c>
+      <c r="K17" t="n">
         <v>453.9965675465116</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M17" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N17" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O17" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="L17" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1107.976466382457</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1107.976466382457</v>
-      </c>
       <c r="P17" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q17" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
@@ -5552,13 +5554,13 @@
         <v>1697.183430080417</v>
       </c>
       <c r="W17" t="n">
-        <v>1292.327975491451</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X17" t="n">
-        <v>873.1855120707613</v>
+        <v>1298.678896155479</v>
       </c>
       <c r="Y17" t="n">
-        <v>873.1855120707613</v>
+        <v>890.3927724551322</v>
       </c>
     </row>
     <row r="18">
@@ -5598,16 +5600,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O18" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>422.5581434046701</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C19" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D19" t="n">
-        <v>380.4087263891149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E19" t="n">
-        <v>210.6507226398521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F19" t="n">
         <v>33.94366860160834</v>
@@ -5671,25 +5673,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K19" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L19" t="n">
-        <v>761.43086230084</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M19" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N19" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O19" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P19" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
@@ -5701,22 +5703,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T19" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U19" t="n">
-        <v>1418.750429333523</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V19" t="n">
-        <v>1131.794921203953</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W19" t="n">
-        <v>859.7685167902448</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X19" t="n">
-        <v>614.3767621236573</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y19" t="n">
-        <v>614.3767621236573</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1494.302298075941</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C20" t="n">
-        <v>1056.159825259364</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D20" t="n">
-        <v>1056.159825259364</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E20" t="n">
-        <v>622.3850804176595</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F20" t="n">
-        <v>194.5176508268673</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G20" t="n">
-        <v>194.5176508268673</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J20" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L20" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M20" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N20" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O20" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P20" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q20" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U20" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V20" t="n">
-        <v>2307.443876365254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W20" t="n">
-        <v>1902.588421776288</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X20" t="n">
-        <v>1902.588421776288</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y20" t="n">
-        <v>1494.302298075941</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C21" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D21" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E21" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F21" t="n">
-        <v>1133.941806870223</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G21" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H21" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I21" t="n">
-        <v>1032.884738113077</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J21" t="n">
-        <v>1357.443063079289</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K21" t="n">
-        <v>2012.149109705013</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>2012.149109705013</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="M21" t="n">
-        <v>2012.149109705013</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="N21" t="n">
-        <v>2012.149109705013</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="O21" t="n">
-        <v>2012.149109705013</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P21" t="n">
-        <v>2012.149109705013</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.888048337089</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R21" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S21" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T21" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U21" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V21" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W21" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X21" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y21" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.8950539462403</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C22" t="n">
-        <v>590.3333424294652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D22" t="n">
-        <v>424.4553496309879</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E22" t="n">
-        <v>254.6973458817252</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F22" t="n">
-        <v>77.9902918434814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J22" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K22" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>832.9492380324151</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M22" t="n">
-        <v>1292.433105213328</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N22" t="n">
-        <v>1734.691908370973</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O22" t="n">
-        <v>2154.361157596754</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P22" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S22" t="n">
-        <v>2510.819457729424</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.94001130788</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U22" t="n">
-        <v>1986.507010560985</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V22" t="n">
-        <v>1699.551502431415</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W22" t="n">
-        <v>1427.525098017707</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X22" t="n">
-        <v>1182.133343351119</v>
+        <v>368.4973157021125</v>
       </c>
       <c r="Y22" t="n">
-        <v>954.7136726652275</v>
+        <v>141.0776450162207</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1789.095648603258</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C23" t="n">
-        <v>1350.953175786681</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D23" t="n">
-        <v>915.0433909611256</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E23" t="n">
-        <v>481.2686461194208</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I23" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J23" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K23" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L23" t="n">
-        <v>1810.336013065103</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M23" t="n">
-        <v>1840.066707136593</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N23" t="n">
-        <v>2500.906761678371</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O23" t="n">
-        <v>2500.906761678371</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P23" t="n">
-        <v>2500.906761678371</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q23" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W23" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X23" t="n">
-        <v>2250.918363010739</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.395219088166</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D24" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E24" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>180.5219584462322</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G24" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H24" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I24" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J24" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P24" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q24" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R24" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S24" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T24" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U24" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V24" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W24" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X24" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>900.7186013536161</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1568898368411</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D25" t="n">
-        <v>562.2788970383638</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E25" t="n">
-        <v>392.520893289101</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8138392508572</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I25" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K25" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L25" t="n">
-        <v>832.9492380324151</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M25" t="n">
-        <v>1292.433105213328</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N25" t="n">
-        <v>1734.691908370973</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O25" t="n">
-        <v>2154.361157596754</v>
+        <v>1566.63415311139</v>
       </c>
       <c r="P25" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q25" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S25" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T25" t="n">
-        <v>2402.763558715255</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U25" t="n">
-        <v>2124.330557968361</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V25" t="n">
-        <v>1837.375049838791</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W25" t="n">
-        <v>1565.348645425083</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.956890758495</v>
+        <v>347.0794944074844</v>
       </c>
       <c r="Y25" t="n">
-        <v>1092.537220072603</v>
+        <v>119.6598237215927</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1292.327975491451</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C26" t="n">
-        <v>1292.327975491451</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D26" t="n">
-        <v>863.9231742410761</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E26" t="n">
-        <v>435.3414999783445</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F26" t="n">
-        <v>435.3414999783445</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G26" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6224,19 +6226,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M26" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N26" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O26" t="n">
         <v>687.9235674375537</v>
@@ -6251,25 +6253,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S26" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T26" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U26" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>1697.183430080417</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W26" t="n">
-        <v>1292.327975491451</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X26" t="n">
-        <v>1292.327975491451</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y26" t="n">
-        <v>1292.327975491451</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="27">
@@ -6282,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6291,34 +6293,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J27" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K27" t="n">
+        <v>319.8519551513677</v>
+      </c>
+      <c r="L27" t="n">
         <v>739.9048540962709</v>
       </c>
-      <c r="L27" t="n">
-        <v>1159.957753041174</v>
-      </c>
       <c r="M27" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N27" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O27" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P27" t="n">
         <v>1159.957753041174</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1113.00182921349</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="C28" t="n">
-        <v>940.4401176967148</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="D28" t="n">
-        <v>774.5621248982375</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E28" t="n">
-        <v>604.8041211489747</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F28" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G28" t="n">
         <v>262.5057921365585</v>
@@ -6406,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T28" t="n">
-        <v>1358.393583880077</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U28" t="n">
-        <v>1358.393583880077</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V28" t="n">
-        <v>1358.393583880077</v>
+        <v>1072.815873056761</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.393583880077</v>
+        <v>800.7894686430523</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.00182921349</v>
+        <v>800.7894686430523</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.00182921349</v>
+        <v>800.7894686430523</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1292.504848503808</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="C29" t="n">
-        <v>863.9231742410761</v>
+        <v>1048.534528690724</v>
       </c>
       <c r="D29" t="n">
-        <v>435.3414999783445</v>
+        <v>619.9528544279926</v>
       </c>
       <c r="E29" t="n">
-        <v>435.3414999783445</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F29" t="n">
-        <v>435.3414999783445</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G29" t="n">
         <v>33.94366860160834</v>
@@ -6461,7 +6463,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J29" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K29" t="n">
         <v>453.9965675465116</v>
@@ -6491,22 +6493,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T29" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U29" t="n">
-        <v>1437.961127397434</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V29" t="n">
-        <v>1292.504848503808</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W29" t="n">
-        <v>1292.504848503808</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="X29" t="n">
-        <v>1292.504848503808</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="Y29" t="n">
-        <v>1292.504848503808</v>
+        <v>1477.116202953456</v>
       </c>
     </row>
     <row r="30">
@@ -6519,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6528,22 +6530,22 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J30" t="n">
-        <v>384.5656667282782</v>
+        <v>358.5019935678207</v>
       </c>
       <c r="K30" t="n">
-        <v>804.6185656731816</v>
+        <v>778.554892512724</v>
       </c>
       <c r="L30" t="n">
         <v>1159.957753041174</v>
@@ -6595,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1113.00182921349</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C31" t="n">
-        <v>940.4401176967148</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D31" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E31" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F31" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H31" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I31" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K31" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L31" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M31" t="n">
-        <v>815.3347072823371</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N31" t="n">
-        <v>815.3347072823371</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O31" t="n">
-        <v>1181.483761245743</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P31" t="n">
-        <v>1528.990655216085</v>
+        <v>1641.225609687538</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6646,25 +6648,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S31" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1537.942061378414</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U31" t="n">
-        <v>1537.942061378414</v>
+        <v>1296.368284401874</v>
       </c>
       <c r="V31" t="n">
-        <v>1532.240118618369</v>
+        <v>1296.368284401874</v>
       </c>
       <c r="W31" t="n">
-        <v>1532.240118618369</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="X31" t="n">
-        <v>1532.240118618369</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>1304.820447932477</v>
+        <v>1024.341879988165</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>908.266909529336</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="C32" t="n">
-        <v>908.266909529336</v>
+        <v>705.6603521915781</v>
       </c>
       <c r="D32" t="n">
-        <v>908.266909529336</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="E32" t="n">
-        <v>908.266909529336</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="F32" t="n">
-        <v>724.8884439079882</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="G32" t="n">
-        <v>323.4906125312521</v>
+        <v>277.0786779288464</v>
       </c>
       <c r="H32" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I32" t="n">
         <v>33.94366860160834</v>
@@ -6701,49 +6703,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L32" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M32" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N32" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O32" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P32" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q32" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R32" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S32" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U32" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V32" t="n">
-        <v>1334.566480014244</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W32" t="n">
-        <v>1334.566480014244</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X32" t="n">
-        <v>1334.566480014244</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y32" t="n">
-        <v>1334.566480014244</v>
+        <v>1134.24202645431</v>
       </c>
     </row>
     <row r="33">
@@ -6832,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>299.3106718651768</v>
+        <v>552.97043790589</v>
       </c>
       <c r="C34" t="n">
-        <v>299.3106718651768</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="D34" t="n">
-        <v>299.3106718651768</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E34" t="n">
-        <v>299.3106718651768</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H34" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L34" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M34" t="n">
-        <v>453.9965675465116</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N34" t="n">
         <v>761.8145120199619</v>
@@ -6883,25 +6885,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S34" t="n">
-        <v>1627.996786243482</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T34" t="n">
-        <v>1382.117339821937</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U34" t="n">
-        <v>1103.684339075042</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V34" t="n">
-        <v>816.7288309454727</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W34" t="n">
-        <v>544.7024265317643</v>
+        <v>1217.600481977356</v>
       </c>
       <c r="X34" t="n">
-        <v>299.3106718651768</v>
+        <v>972.2087273107688</v>
       </c>
       <c r="Y34" t="n">
-        <v>299.3106718651768</v>
+        <v>744.789056624877</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1319.688691389803</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="C35" t="n">
-        <v>891.1070171270717</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="D35" t="n">
-        <v>462.52534286434</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="E35" t="n">
-        <v>33.94366860160834</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H35" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L35" t="n">
         <v>453.9965675465116</v>
@@ -6950,13 +6952,13 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O35" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P35" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q35" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R35" t="n">
         <v>1697.183430080417</v>
@@ -6977,10 +6979,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X35" t="n">
-        <v>1319.688691389803</v>
+        <v>1296.813581750515</v>
       </c>
       <c r="Y35" t="n">
-        <v>1319.688691389803</v>
+        <v>888.5274580501684</v>
       </c>
     </row>
     <row r="36">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>549.0904269551045</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="C37" t="n">
-        <v>376.5287154383295</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D37" t="n">
         <v>210.6507226398521</v>
@@ -7093,25 +7095,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K37" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L37" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M37" t="n">
-        <v>1233.544589050298</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N37" t="n">
-        <v>1233.544589050298</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O37" t="n">
-        <v>1233.544589050298</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P37" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
@@ -7123,22 +7125,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T37" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U37" t="n">
-        <v>1240.355120773692</v>
+        <v>1434.262679254597</v>
       </c>
       <c r="V37" t="n">
-        <v>1240.355120773692</v>
+        <v>1147.307171125027</v>
       </c>
       <c r="W37" t="n">
-        <v>968.3287163599834</v>
+        <v>875.2807667113186</v>
       </c>
       <c r="X37" t="n">
-        <v>968.3287163599834</v>
+        <v>629.8890120447311</v>
       </c>
       <c r="Y37" t="n">
-        <v>740.9090456740917</v>
+        <v>402.4693413588393</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C38" t="n">
-        <v>724.4716545351282</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D38" t="n">
-        <v>724.4716545351282</v>
+        <v>890.8095618279922</v>
       </c>
       <c r="E38" t="n">
-        <v>724.4716545351282</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F38" t="n">
-        <v>724.4716545351282</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G38" t="n">
-        <v>323.0738231583921</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H38" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7175,49 +7177,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N38" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O38" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P38" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q38" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V38" t="n">
-        <v>1250.914606198081</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W38" t="n">
-        <v>846.059151609114</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X38" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y38" t="n">
-        <v>724.4716545351282</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>209.2559470001092</v>
+        <v>400.6526303550848</v>
       </c>
       <c r="C40" t="n">
-        <v>36.69423548333413</v>
+        <v>228.0909188383097</v>
       </c>
       <c r="D40" t="n">
-        <v>36.69423548333413</v>
+        <v>228.0909188383097</v>
       </c>
       <c r="E40" t="n">
-        <v>36.69423548333413</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F40" t="n">
         <v>33.94366860160834</v>
@@ -7336,13 +7338,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L40" t="n">
-        <v>761.43086230084</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M40" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N40" t="n">
-        <v>1181.483761245743</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O40" t="n">
         <v>1181.483761245743</v>
@@ -7354,28 +7356,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S40" t="n">
-        <v>1537.942061378414</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T40" t="n">
-        <v>1292.062614956869</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U40" t="n">
-        <v>1013.629614209975</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V40" t="n">
-        <v>726.6741060804052</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W40" t="n">
-        <v>454.6477016666967</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="X40" t="n">
-        <v>209.2559470001092</v>
+        <v>592.4712490740719</v>
       </c>
       <c r="Y40" t="n">
-        <v>209.2559470001092</v>
+        <v>592.4712490740719</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>435.7582893512044</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C41" t="n">
-        <v>435.7582893512044</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D41" t="n">
-        <v>435.7582893512044</v>
+        <v>840.020081554954</v>
       </c>
       <c r="E41" t="n">
-        <v>435.7582893512044</v>
+        <v>411.4384072922223</v>
       </c>
       <c r="F41" t="n">
-        <v>435.7582893512044</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G41" t="n">
         <v>34.36045797446834</v>
@@ -7409,10 +7411,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K41" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L41" t="n">
         <v>453.9965675465116</v>
@@ -7424,7 +7426,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0494664914149</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P41" t="n">
         <v>1107.976466382457</v>
@@ -7436,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T41" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U41" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V41" t="n">
-        <v>1263.18687647224</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W41" t="n">
-        <v>1263.18687647224</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X41" t="n">
-        <v>844.044413051551</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y41" t="n">
-        <v>435.7582893512044</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>236.2145344268032</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C43" t="n">
-        <v>63.65282291002814</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D43" t="n">
-        <v>63.65282291002814</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E43" t="n">
-        <v>63.65282291002814</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F43" t="n">
-        <v>63.65282291002814</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G43" t="n">
-        <v>63.65282291002814</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H43" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I43" t="n">
         <v>33.94366860160834</v>
@@ -7570,49 +7572,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K43" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L43" t="n">
-        <v>452.1535503695694</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M43" t="n">
-        <v>872.2064493144727</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O43" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P43" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q43" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S43" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T43" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U43" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V43" t="n">
-        <v>1172.870982911978</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W43" t="n">
-        <v>900.8445784982696</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X43" t="n">
-        <v>655.4528238316821</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y43" t="n">
-        <v>428.0331531457903</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14.90291004744813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C44" t="n">
-        <v>14.90291004744813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D44" t="n">
-        <v>14.90291004744813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E44" t="n">
-        <v>14.90291004744813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F44" t="n">
-        <v>14.90291004744813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G44" t="n">
-        <v>14.90291004744813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H44" t="n">
-        <v>14.90291004744813</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I44" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J44" t="n">
-        <v>14.48612067458814</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>14.48612067458814</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L44" t="n">
-        <v>17.35473893226555</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M44" t="n">
-        <v>17.35473893226555</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N44" t="n">
-        <v>17.35473893226555</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O44" t="n">
-        <v>196.6204822802937</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P44" t="n">
-        <v>375.8862256283219</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q44" t="n">
-        <v>555.1519689763501</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R44" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>724.3060337294069</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T44" t="n">
-        <v>541.4004696563243</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U44" t="n">
-        <v>358.4949055832417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V44" t="n">
-        <v>175.5893415101591</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W44" t="n">
-        <v>14.90291004744813</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="X44" t="n">
-        <v>14.90291004744813</v>
+        <v>868.5293627868627</v>
       </c>
       <c r="Y44" t="n">
-        <v>14.90291004744813</v>
+        <v>460.2432390865162</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>520.6578656658809</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C45" t="n">
-        <v>414.2014045025232</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D45" t="n">
-        <v>319.1111156490765</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E45" t="n">
-        <v>224.9907009760302</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F45" t="n">
-        <v>141.6068625921918</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G45" t="n">
-        <v>56.22177285837567</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H45" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I45" t="n">
-        <v>40.54979383504573</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J45" t="n">
-        <v>219.8155371830739</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K45" t="n">
-        <v>399.0812805311022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P45" t="n">
-        <v>427.8675122870389</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q45" t="n">
-        <v>607.133255635067</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R45" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S45" t="n">
-        <v>660.85059617779</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T45" t="n">
-        <v>660.85059617779</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U45" t="n">
-        <v>660.85059617779</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V45" t="n">
-        <v>660.85059617779</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W45" t="n">
-        <v>660.85059617779</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X45" t="n">
-        <v>660.85059617779</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y45" t="n">
-        <v>641.961766745644</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14.48612067458814</v>
+        <v>1113.00182921349</v>
       </c>
       <c r="C46" t="n">
-        <v>14.48612067458814</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D46" t="n">
-        <v>14.48612067458814</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E46" t="n">
-        <v>14.48612067458814</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F46" t="n">
-        <v>14.48612067458814</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G46" t="n">
-        <v>14.48612067458814</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H46" t="n">
-        <v>14.48612067458814</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K46" t="n">
-        <v>14.48612067458814</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L46" t="n">
-        <v>18.3160288209901</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M46" t="n">
-        <v>197.5817721690183</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N46" t="n">
-        <v>376.8475155170465</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O46" t="n">
-        <v>556.1132588650746</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P46" t="n">
-        <v>556.1132588650746</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q46" t="n">
-        <v>724.3060337294069</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R46" t="n">
-        <v>724.3060337294069</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S46" t="n">
-        <v>724.3060337294069</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T46" t="n">
-        <v>541.4004696563243</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U46" t="n">
-        <v>380.2972488207532</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V46" t="n">
-        <v>380.2972488207532</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W46" t="n">
-        <v>197.3916847476707</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X46" t="n">
-        <v>14.48612067458814</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="Y46" t="n">
-        <v>14.48612067458814</v>
+        <v>1229.568731954216</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8140,13 +8142,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>117.3049970300783</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8377,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8614,19 +8616,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>296.5687363523682</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L11" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -8769,22 +8771,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8851,16 +8853,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -8927,7 +8929,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9088,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6484237362511</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,19 +9248,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9319,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9413,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9717,10 +9719,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -9802,19 +9804,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -9948,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>358.9284720888815</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10185,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10504,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -10513,10 +10515,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>223.4729892007681</v>
+      </c>
+      <c r="N34" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N34" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M37" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>298.4303698644312</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10835,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10984,7 +10986,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>424.2958575201044</v>
@@ -10993,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -11218,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.897594199674156</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11373,13 +11375,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>29.07700177367349</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -11458,22 +11460,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>3.868594087274712</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>69.49276815683976</v>
       </c>
       <c r="C2" t="n">
-        <v>178.6143319319679</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -22562,10 +22564,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22612,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22714,13 +22716,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.21139075364334</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>10.15170272092624</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22793,16 +22795,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>208.360190482088</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>330.1410925364936</v>
       </c>
     </row>
     <row r="6">
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.9552660335091</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>15.83994225927069</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -23030,16 +23032,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>246.7532629795449</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>372.1048196112441</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>103.9097667323106</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1972010632278</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23239,7 +23241,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23261,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -23309,19 +23311,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>244.2465613698409</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>211.764061605235</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>85.05028852016289</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>15.5587197492369</v>
       </c>
     </row>
     <row r="14">
@@ -23495,25 +23497,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>49.86896399117649</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>143.4904884324132</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23659,13 +23661,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>131.5669924140245</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>420.121689785866</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -23792,13 +23794,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>20.43155020079337</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C19" t="n">
-        <v>129.1081715562077</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -23941,7 +23943,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>47.60968125113078</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23986,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>146.5335830559596</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24026,16 +24028,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>83.83779588133098</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627263</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24203,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>59.33415455948301</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.0353499799957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0414389630128</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.146865729424235</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24446,10 +24448,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>7.429933739429202</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24491,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>354.1250124085991</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>65.66765923397591</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>206.2350373732905</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -24686,13 +24688,13 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>272.8766587200516</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H29" t="n">
         <v>286.2388530112159</v>
@@ -24731,13 +24733,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>214.9890644608216</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>122.2623284749967</v>
       </c>
       <c r="V31" t="n">
-        <v>278.441029715829</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>242.04407432975</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>45.53519377725019</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>89.15417761641721</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>195.5886287198536</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -25172,7 +25174,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25217,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>41.23124748277456</v>
+        <v>18.58488893987902</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25363,19 +25365,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>66.80929648309683</v>
+        <v>15.3571274218632</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,25 +25393,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>57.53641492750336</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -25448,13 +25450,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>294.5794166832364</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>150.7946294752971</v>
       </c>
       <c r="F40" t="n">
-        <v>172.2169222849528</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25628,19 +25630,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>50.28158547030785</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>268.7796272275712</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.0910898011936</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25883,7 +25885,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>36.79004642334004</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>75.55357122380155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>177.91427213316</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.7273328949931</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>293.0197274655299</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25995,22 +25997,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.5209802907469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>74.49919881847789</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>62.34414352497757</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>116.1564821122104</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>88.22963193721966</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>61.86132868756994</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>361217.161272458</v>
+        <v>361217.1612724579</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508145.1741640427</v>
+        <v>361217.1612724579</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508145.1741640428</v>
+        <v>361217.1612724579</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>361217.161272458</v>
+        <v>361217.1612724579</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>361217.161272458</v>
+        <v>361217.1612724579</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154156.4481240856</v>
+        <v>361217.1612724579</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90151.75317155514</v>
+      </c>
+      <c r="C2" t="n">
         <v>90151.75317155512</v>
       </c>
-      <c r="C2" t="n">
-        <v>90151.75317155513</v>
-      </c>
       <c r="D2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="E2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="F2" t="n">
         <v>90151.75317155512</v>
       </c>
       <c r="G2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="H2" t="n">
-        <v>126821.7106717144</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="I2" t="n">
-        <v>126821.7106717144</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="J2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155516</v>
       </c>
       <c r="K2" t="n">
+        <v>90151.75317155512</v>
+      </c>
+      <c r="L2" t="n">
         <v>90151.75317155513</v>
       </c>
-      <c r="L2" t="n">
-        <v>90151.75317155512</v>
-      </c>
       <c r="M2" t="n">
-        <v>90151.75317155512</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="N2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="O2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="P2" t="n">
-        <v>38474.01383735381</v>
+        <v>90151.7531715551</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>65622.76935801745</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47377.58197227423</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31028.66177247689</v>
+        <v>31028.6617724769</v>
       </c>
       <c r="C4" t="n">
-        <v>31028.66177247689</v>
+        <v>31028.6617724769</v>
       </c>
       <c r="D4" t="n">
         <v>31028.66177247689</v>
@@ -26430,13 +26432,13 @@
         <v>31028.6617724769</v>
       </c>
       <c r="G4" t="n">
-        <v>31028.66177247689</v>
+        <v>31028.6617724769</v>
       </c>
       <c r="H4" t="n">
-        <v>43649.82185483626</v>
+        <v>31028.6617724769</v>
       </c>
       <c r="I4" t="n">
-        <v>43649.82185483626</v>
+        <v>31028.6617724769</v>
       </c>
       <c r="J4" t="n">
         <v>31028.66177247689</v>
@@ -26445,19 +26447,19 @@
         <v>31028.66177247689</v>
       </c>
       <c r="L4" t="n">
+        <v>31028.6617724769</v>
+      </c>
+      <c r="M4" t="n">
         <v>31028.66177247689</v>
       </c>
-      <c r="M4" t="n">
-        <v>31028.6617724769</v>
-      </c>
       <c r="N4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="O4" t="n">
         <v>31028.66177247689</v>
       </c>
       <c r="P4" t="n">
-        <v>13242.08482243379</v>
+        <v>31028.66177247689</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26487,10 @@
         <v>25797.18813722234</v>
       </c>
       <c r="H5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="I5" t="n">
-        <v>40584.9245617577</v>
+        <v>25797.18813722234</v>
       </c>
       <c r="J5" t="n">
         <v>25797.18813722234</v>
@@ -26509,7 +26511,7 @@
         <v>25797.18813722234</v>
       </c>
       <c r="P5" t="n">
-        <v>11009.45171268698</v>
+        <v>25797.18813722234</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142492.9973978541</v>
+        <v>-142492.997397854</v>
       </c>
       <c r="C6" t="n">
-        <v>-301.6967381441063</v>
+        <v>-301.6967381441209</v>
       </c>
       <c r="D6" t="n">
-        <v>-301.6967381441063</v>
+        <v>-301.6967381440918</v>
       </c>
       <c r="E6" t="n">
-        <v>33325.90326185589</v>
+        <v>33325.90326185591</v>
       </c>
       <c r="F6" t="n">
         <v>33325.90326185587</v>
       </c>
       <c r="G6" t="n">
-        <v>33325.90326185591</v>
+        <v>33325.90326185588</v>
       </c>
       <c r="H6" t="n">
-        <v>-23035.80510289696</v>
+        <v>33325.90326185588</v>
       </c>
       <c r="I6" t="n">
-        <v>42586.96425512047</v>
+        <v>33325.90326185588</v>
       </c>
       <c r="J6" t="n">
-        <v>-14051.67871041832</v>
+        <v>-77688.56208313425</v>
       </c>
       <c r="K6" t="n">
-        <v>33325.90326185589</v>
+        <v>33325.90326185588</v>
       </c>
       <c r="L6" t="n">
         <v>33325.90326185588</v>
       </c>
       <c r="M6" t="n">
+        <v>33325.90326185589</v>
+      </c>
+      <c r="N6" t="n">
+        <v>33325.9032618559</v>
+      </c>
+      <c r="O6" t="n">
+        <v>33325.90326185588</v>
+      </c>
+      <c r="P6" t="n">
         <v>33325.90326185587</v>
-      </c>
-      <c r="N6" t="n">
-        <v>33325.90326185588</v>
-      </c>
-      <c r="O6" t="n">
-        <v>33325.90326185589</v>
-      </c>
-      <c r="P6" t="n">
-        <v>14222.47730223304</v>
       </c>
     </row>
   </sheetData>
@@ -26805,10 +26807,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="H4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="I4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
@@ -26829,7 +26831,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
     </row>
   </sheetData>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>243.2193490877526</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34860,13 +34862,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>117.3049970300783</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35097,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>358.9284720888815</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35334,19 +35336,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>296.5687363523682</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K11" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L11" t="n">
-        <v>236.2898988798406</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q11" t="n">
         <v>424.2958575201044</v>
@@ -35489,22 +35491,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P12" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35571,16 +35573,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -35647,7 +35649,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,13 +35661,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q14" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9284720888814</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>288.796249040161</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35808,22 +35810,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M16" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6484237362511</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>369.8475292559658</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M19" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="N19" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36133,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697544</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>52.98895607821112</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K23" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>30.03100411261585</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697544</v>
@@ -36437,10 +36439,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
@@ -36522,19 +36524,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
-        <v>351.017064616507</v>
+        <v>131.8679565343714</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O26" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>358.9284720888815</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="L27" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>424.2958575201044</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9284720888814</v>
+        <v>385.2554146752024</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O31" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>56.52305090189816</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37081,16 +37083,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37233,10 +37235,10 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
+        <v>223.4729892007681</v>
+      </c>
+      <c r="N34" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="N34" t="n">
-        <v>310.9272166398487</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37318,16 +37320,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q35" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M37" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>298.4303698644312</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37555,16 +37557,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>424.2958575201044</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="Q38" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>369.8475292559658</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>424.2958575201044</v>
@@ -37713,7 +37715,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,10 +37794,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q41" t="n">
         <v>424.2958575201044</v>
@@ -37938,25 +37940,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>409.401749030468</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.897594199674156</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P44" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.0765084323517</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>181.0765084323517</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L45" t="n">
-        <v>29.07700177367349</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,10 +38116,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094342</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,22 +38180,22 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>3.868594087274712</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>181.0765084323517</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N46" t="n">
-        <v>181.0765084323517</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O46" t="n">
-        <v>181.0765084323517</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4141.347995272436</v>
+        <v>-10376.66549442751</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4176798.440022146</v>
+        <v>4176798.440022147</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>352.5438066232189</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>132.4132097347949</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>38.63949642273433</v>
       </c>
       <c r="G4" t="n">
-        <v>122.7239714707873</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>74.06216992684948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610075</v>
+        <v>62.82088317610085</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.94516649828809</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>8.208419683653789</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>232.7624148762762</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>42.84621917523827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>66.92632766929671</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>239.7200947282601</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.3119672906312</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>203.1869771812474</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>90.56719172652049</v>
       </c>
       <c r="Y13" t="n">
-        <v>209.5867542297959</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>113.1395912237401</v>
+        <v>158.4355533813685</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.0626366504663</v>
+        <v>104.7045374784268</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,10 +1830,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>374.4268935289279</v>
       </c>
       <c r="E17" t="n">
         <v>424.2958575201043</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>394.519488585689</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>14.69254647175497</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2064,13 +2064,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.4268935289279</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>386.1273223686326</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>106.0626366504663</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>124.9695443427352</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>374.4268935289279</v>
+        <v>104.3219564213121</v>
       </c>
       <c r="D23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.85899356878446</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>232.4996346837568</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>260.7962542907269</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>46.68188763447793</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2715,10 +2715,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>146.6325435271071</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>77.85091567498334</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="D29" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>156.5603386732361</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>306.0087361885582</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>153.386342264429</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>99.55977752441125</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>129.0168473145288</v>
       </c>
       <c r="C32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>240.7036592339657</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>98.55155363651654</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3201,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.71751164971781</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>226.3467934389402</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>396.3661498466034</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3426,19 +3426,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>260.2915433175625</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>213.646247653749</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>374.0142720497965</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>303.3119672906312</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>17.26579423647301</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>41.26176538196641</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>424.2958575201043</v>
+        <v>316.6526764427793</v>
       </c>
       <c r="D41" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E41" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>373.3071698245765</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>14.64240424309014</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>208.7796077154266</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>121.9313113209525</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>115.4012337133193</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4146,7 +4146,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>141.5889006077358</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W2" t="n">
-        <v>1217.893900270473</v>
+        <v>586.8368489261309</v>
       </c>
       <c r="X2" t="n">
-        <v>798.7514368497835</v>
+        <v>167.6943855054416</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.465313149437</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>386.4693996828083</v>
+        <v>238.851455766484</v>
       </c>
       <c r="C4" t="n">
-        <v>386.4693996828083</v>
+        <v>238.851455766484</v>
       </c>
       <c r="D4" t="n">
-        <v>386.4693996828083</v>
+        <v>72.97346296800666</v>
       </c>
       <c r="E4" t="n">
-        <v>386.4693996828083</v>
+        <v>72.97346296800666</v>
       </c>
       <c r="F4" t="n">
-        <v>386.4693996828083</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,13 +4494,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>711.6628811189632</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8890703687</v>
+        <v>466.2711264523757</v>
       </c>
       <c r="Y4" t="n">
-        <v>386.4693996828083</v>
+        <v>238.851455766484</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>435.7582893512044</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="C5" t="n">
-        <v>435.7582893512044</v>
+        <v>1318.974446717864</v>
       </c>
       <c r="D5" t="n">
-        <v>435.7582893512044</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E5" t="n">
-        <v>435.7582893512044</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
@@ -4570,19 +4570,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
         <v>1107.976466382457</v>
@@ -4603,16 +4603,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.566480014244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>929.7110254252771</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="X5" t="n">
-        <v>510.5685620045878</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y5" t="n">
-        <v>435.7582893512044</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>161.064410519212</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H6" t="n">
         <v>33.94366860160834</v>
@@ -4646,22 +4646,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K6" t="n">
         <v>739.9048540962709</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
         <v>1159.957753041174</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.3833729168607</v>
+        <v>214.7967131321751</v>
       </c>
       <c r="C7" t="n">
-        <v>199.8216614000857</v>
+        <v>42.23500161540005</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>42.23500161540005</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>42.23500161540005</v>
       </c>
       <c r="F7" t="n">
         <v>33.94366860160834</v>
@@ -4731,16 +4731,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>689.2685070454004</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P7" t="n">
         <v>1528.990655216085</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W7" t="n">
-        <v>613.8890703687</v>
+        <v>879.4267572036415</v>
       </c>
       <c r="X7" t="n">
-        <v>613.8890703687</v>
+        <v>634.035002537054</v>
       </c>
       <c r="Y7" t="n">
-        <v>386.4693996828083</v>
+        <v>406.6153318511622</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>323.4906125312521</v>
+        <v>269.0572189816853</v>
       </c>
       <c r="C8" t="n">
-        <v>323.4906125312521</v>
+        <v>269.0572189816853</v>
       </c>
       <c r="D8" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E8" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F8" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I8" t="n">
         <v>33.94366860160834</v>
@@ -4807,19 +4807,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>1107.976466382457</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>1107.976466382457</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P8" t="n">
         <v>1107.976466382457</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V8" t="n">
-        <v>771.6250763881362</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W8" t="n">
-        <v>366.7696217991695</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X8" t="n">
-        <v>323.4906125312521</v>
+        <v>695.3567894665931</v>
       </c>
       <c r="Y8" t="n">
-        <v>323.4906125312521</v>
+        <v>695.3567894665931</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,10 +4871,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
@@ -4886,19 +4886,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M9" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P9" t="n">
         <v>1159.957753041174</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>613.8890703687</v>
+        <v>523.1146084662527</v>
       </c>
       <c r="C10" t="n">
-        <v>546.2867191875922</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4087263891149</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="E10" t="n">
-        <v>210.6507226398521</v>
+        <v>350.5528969494776</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H10" t="n">
         <v>33.94366860160834</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T10" t="n">
-        <v>1451.303983658873</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U10" t="n">
-        <v>1172.870982911978</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="V10" t="n">
-        <v>885.9154747824084</v>
+        <v>1187.744652537719</v>
       </c>
       <c r="W10" t="n">
-        <v>613.8890703687</v>
+        <v>1187.744652537719</v>
       </c>
       <c r="X10" t="n">
-        <v>613.8890703687</v>
+        <v>942.3528978711315</v>
       </c>
       <c r="Y10" t="n">
-        <v>613.8890703687</v>
+        <v>714.9332271852397</v>
       </c>
     </row>
     <row r="11">
@@ -5041,19 +5041,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J11" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K11" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L11" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M11" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N11" t="n">
-        <v>267.8706684926505</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O11" t="n">
         <v>687.9235674375537</v>
@@ -5068,25 +5068,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S11" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U11" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V11" t="n">
-        <v>1334.566480014244</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W11" t="n">
-        <v>929.7110254252771</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="X11" t="n">
-        <v>724.4716545351282</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="Y11" t="n">
-        <v>724.4716545351282</v>
+        <v>1030.847379071119</v>
       </c>
     </row>
     <row r="12">
@@ -5123,19 +5123,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N12" t="n">
-        <v>384.5656667282782</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O12" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P12" t="n">
         <v>1159.957753041174</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1113.00182921349</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C13" t="n">
-        <v>940.4401176967148</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D13" t="n">
-        <v>774.5621248982375</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E13" t="n">
-        <v>604.8041211489747</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F13" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G13" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H13" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I13" t="n">
         <v>33.94366860160834</v>
@@ -5235,16 +5235,16 @@
         <v>1516.524240083786</v>
       </c>
       <c r="V13" t="n">
-        <v>1516.524240083786</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W13" t="n">
-        <v>1516.524240083786</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="X13" t="n">
-        <v>1516.524240083786</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y13" t="n">
-        <v>1304.820447932477</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>323.4906125312521</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C14" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D14" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E14" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F14" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G14" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H14" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I14" t="n">
         <v>33.94366860160834</v>
@@ -5296,7 +5296,7 @@
         <v>874.0494664914149</v>
       </c>
       <c r="P14" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q14" t="n">
         <v>1528.02936532736</v>
@@ -5308,22 +5308,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T14" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U14" t="n">
-        <v>1499.249140886739</v>
+        <v>1233.42841663086</v>
       </c>
       <c r="V14" t="n">
-        <v>1136.632190820565</v>
+        <v>870.8114665646866</v>
       </c>
       <c r="W14" t="n">
-        <v>731.7767362315986</v>
+        <v>870.8114665646866</v>
       </c>
       <c r="X14" t="n">
-        <v>731.7767362315986</v>
+        <v>870.8114665646866</v>
       </c>
       <c r="Y14" t="n">
-        <v>323.4906125312521</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C15" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D15" t="n">
         <v>338.5686635760967</v>
@@ -5345,28 +5345,28 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F15" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G15" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H15" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I15" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J15" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K15" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L15" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M15" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N15" t="n">
         <v>1159.957753041174</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C16" t="n">
-        <v>33.94366860160834</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="D16" t="n">
-        <v>33.94366860160834</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E16" t="n">
-        <v>33.94366860160834</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F16" t="n">
-        <v>33.94366860160834</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G16" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H16" t="n">
         <v>33.94366860160834</v>
@@ -5436,52 +5436,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J16" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K16" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L16" t="n">
-        <v>437.4083829648294</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M16" t="n">
-        <v>857.4612819097326</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N16" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O16" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P16" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q16" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R16" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S16" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U16" t="n">
-        <v>1172.870982911978</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="V16" t="n">
-        <v>885.9154747824084</v>
+        <v>1229.568731954216</v>
       </c>
       <c r="W16" t="n">
-        <v>613.8890703687</v>
+        <v>957.542327540508</v>
       </c>
       <c r="X16" t="n">
-        <v>368.4973157021125</v>
+        <v>957.542327540508</v>
       </c>
       <c r="Y16" t="n">
-        <v>141.0776450162207</v>
+        <v>957.542327540508</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.3927724551322</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="C17" t="n">
-        <v>890.3927724551322</v>
+        <v>1268.601755817686</v>
       </c>
       <c r="D17" t="n">
         <v>890.3927724551322</v>
@@ -5515,28 +5515,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J17" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K17" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L17" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M17" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N17" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O17" t="n">
-        <v>874.0494664914149</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P17" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q17" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R17" t="n">
         <v>1697.183430080417</v>
@@ -5557,10 +5557,10 @@
         <v>1697.183430080417</v>
       </c>
       <c r="X17" t="n">
-        <v>1298.678896155479</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Y17" t="n">
-        <v>890.3927724551322</v>
+        <v>1697.183430080417</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J18" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K18" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O18" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P18" t="n">
         <v>1159.957753041174</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.94366860160834</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="C19" t="n">
-        <v>33.94366860160834</v>
+        <v>778.5740196905466</v>
       </c>
       <c r="D19" t="n">
-        <v>33.94366860160834</v>
+        <v>612.6960268920693</v>
       </c>
       <c r="E19" t="n">
-        <v>33.94366860160834</v>
+        <v>442.9380231428066</v>
       </c>
       <c r="F19" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G19" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H19" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I19" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J19" t="n">
-        <v>33.94366860160834</v>
+        <v>68.8461756808652</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94366860160834</v>
+        <v>343.6046302520008</v>
       </c>
       <c r="L19" t="n">
-        <v>437.4083829648294</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M19" t="n">
-        <v>857.4612819097326</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N19" t="n">
-        <v>1277.514180854636</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O19" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P19" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q19" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R19" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T19" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U19" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V19" t="n">
-        <v>885.9154747824084</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W19" t="n">
-        <v>613.8890703687</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X19" t="n">
-        <v>368.4973157021125</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y19" t="n">
-        <v>141.0776450162207</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1318.974446717864</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.974446717864</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D20" t="n">
-        <v>890.3927724551322</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8110981924006</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F20" t="n">
-        <v>33.94366860160834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G20" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H20" t="n">
         <v>33.94366860160834</v>
@@ -5755,16 +5755,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N20" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O20" t="n">
         <v>687.9235674375537</v>
@@ -5782,22 +5782,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U20" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="W20" t="n">
-        <v>1697.183430080417</v>
+        <v>1114.499252887282</v>
       </c>
       <c r="X20" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y20" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L21" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M21" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N21" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O21" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P21" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q21" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R21" t="n">
         <v>1697.183430080417</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.94366860160834</v>
+        <v>1010.671568650999</v>
       </c>
       <c r="C22" t="n">
-        <v>33.94366860160834</v>
+        <v>838.1098571342244</v>
       </c>
       <c r="D22" t="n">
-        <v>33.94366860160834</v>
+        <v>672.2318643357471</v>
       </c>
       <c r="E22" t="n">
-        <v>33.94366860160834</v>
+        <v>502.4738605864844</v>
       </c>
       <c r="F22" t="n">
-        <v>33.94366860160834</v>
+        <v>325.7668065482405</v>
       </c>
       <c r="G22" t="n">
-        <v>33.94366860160834</v>
+        <v>160.1755315740682</v>
       </c>
       <c r="H22" t="n">
         <v>33.94366860160834</v>
@@ -5916,46 +5916,46 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L22" t="n">
-        <v>437.4083829648294</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M22" t="n">
-        <v>857.4612819097326</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N22" t="n">
-        <v>1277.514180854636</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O22" t="n">
-        <v>1697.183430080417</v>
+        <v>1293.718715717196</v>
       </c>
       <c r="P22" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q22" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R22" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S22" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T22" t="n">
-        <v>1451.303983658873</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U22" t="n">
-        <v>1172.870982911978</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V22" t="n">
-        <v>885.9154747824084</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="W22" t="n">
-        <v>613.8890703687</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="X22" t="n">
-        <v>368.4973157021125</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="Y22" t="n">
-        <v>141.0776450162207</v>
+        <v>1010.671568650999</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1697.183430080417</v>
+        <v>139.7361715313492</v>
       </c>
       <c r="C23" t="n">
-        <v>1318.974446717864</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="D23" t="n">
-        <v>890.3927724551322</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="E23" t="n">
-        <v>461.8110981924006</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="F23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H23" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I23" t="n">
         <v>33.94366860160834</v>
@@ -6016,25 +6016,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S23" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W23" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="X23" t="n">
-        <v>1697.183430080417</v>
+        <v>974.3218657166036</v>
       </c>
       <c r="Y23" t="n">
-        <v>1697.183430080417</v>
+        <v>566.035742016257</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C24" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D24" t="n">
         <v>338.5686635760967</v>
@@ -6056,10 +6056,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F24" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G24" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H24" t="n">
         <v>33.94366860160834</v>
@@ -6147,52 +6147,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J25" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K25" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L25" t="n">
-        <v>726.9120049407049</v>
+        <v>761.43086230084</v>
       </c>
       <c r="M25" t="n">
-        <v>726.9120049407049</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N25" t="n">
-        <v>1146.964903885608</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O25" t="n">
-        <v>1566.63415311139</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P25" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q25" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R25" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S25" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T25" t="n">
-        <v>1429.886162364244</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.45316161735</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V25" t="n">
-        <v>864.4976534877803</v>
+        <v>778.7814983677961</v>
       </c>
       <c r="W25" t="n">
-        <v>592.4712490740719</v>
+        <v>506.7550939540876</v>
       </c>
       <c r="X25" t="n">
-        <v>347.0794944074844</v>
+        <v>261.3633392875001</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.6598237215927</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>724.4716545351282</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C26" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D26" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E26" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F26" t="n">
-        <v>724.4716545351282</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G26" t="n">
-        <v>323.0738231583921</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H26" t="n">
         <v>33.94366860160834</v>
@@ -6226,25 +6226,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J26" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K26" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L26" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M26" t="n">
-        <v>33.94366860160834</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N26" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O26" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P26" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q26" t="n">
         <v>1528.02936532736</v>
@@ -6262,16 +6262,16 @@
         <v>1134.24202645431</v>
       </c>
       <c r="V26" t="n">
-        <v>771.6250763881362</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="W26" t="n">
-        <v>724.4716545351282</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="X26" t="n">
-        <v>724.4716545351282</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="Y26" t="n">
-        <v>724.4716545351282</v>
+        <v>725.9559027539632</v>
       </c>
     </row>
     <row r="27">
@@ -6284,7 +6284,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C27" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D27" t="n">
         <v>338.5686635760967</v>
@@ -6293,37 +6293,37 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F27" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G27" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H27" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I27" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J27" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K27" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L27" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M27" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N27" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O27" t="n">
-        <v>739.9048540962709</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P27" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q27" t="n">
         <v>1580.010651986078</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>608.9708499240651</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C28" t="n">
-        <v>608.9708499240651</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D28" t="n">
-        <v>608.9708499240651</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E28" t="n">
-        <v>439.2128461748023</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F28" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G28" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H28" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I28" t="n">
         <v>33.94366860160834</v>
@@ -6390,13 +6390,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L28" t="n">
-        <v>761.43086230084</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M28" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N28" t="n">
-        <v>1181.483761245743</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O28" t="n">
         <v>1181.483761245743</v>
@@ -6408,28 +6408,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S28" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T28" t="n">
-        <v>1429.886162364244</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="U28" t="n">
-        <v>1151.45316161735</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="V28" t="n">
-        <v>1072.815873056761</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="W28" t="n">
-        <v>800.7894686430523</v>
+        <v>1549.069749750006</v>
       </c>
       <c r="X28" t="n">
-        <v>800.7894686430523</v>
+        <v>1303.677995083419</v>
       </c>
       <c r="Y28" t="n">
-        <v>800.7894686430523</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1477.116202953456</v>
+        <v>462.52534286434</v>
       </c>
       <c r="C29" t="n">
-        <v>1048.534528690724</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D29" t="n">
-        <v>619.9528544279926</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E29" t="n">
-        <v>461.8110981924006</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F29" t="n">
         <v>33.94366860160834</v>
@@ -6490,25 +6490,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S29" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T29" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U29" t="n">
-        <v>1477.116202953456</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V29" t="n">
-        <v>1477.116202953456</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W29" t="n">
-        <v>1477.116202953456</v>
+        <v>462.52534286434</v>
       </c>
       <c r="X29" t="n">
-        <v>1477.116202953456</v>
+        <v>462.52534286434</v>
       </c>
       <c r="Y29" t="n">
-        <v>1477.116202953456</v>
+        <v>462.52534286434</v>
       </c>
     </row>
     <row r="30">
@@ -6521,7 +6521,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C30" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D30" t="n">
         <v>338.5686635760967</v>
@@ -6530,34 +6530,34 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F30" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G30" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H30" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I30" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J30" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K30" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O30" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P30" t="n">
         <v>1159.957753041174</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1024.341879988165</v>
+        <v>851.7801684713901</v>
       </c>
       <c r="C31" t="n">
         <v>851.7801684713901</v>
@@ -6621,25 +6621,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J31" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L31" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M31" t="n">
-        <v>453.9965675465116</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N31" t="n">
-        <v>874.0494664914149</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O31" t="n">
-        <v>1293.718715717196</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P31" t="n">
-        <v>1641.225609687538</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q31" t="n">
         <v>1697.183430080417</v>
@@ -6651,22 +6651,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T31" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U31" t="n">
-        <v>1296.368284401874</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V31" t="n">
-        <v>1296.368284401874</v>
+        <v>1596.617998237578</v>
       </c>
       <c r="W31" t="n">
-        <v>1024.341879988165</v>
+        <v>1324.591593823869</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.341879988165</v>
+        <v>1079.199839157282</v>
       </c>
       <c r="Y31" t="n">
-        <v>1024.341879988165</v>
+        <v>851.7801684713901</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1134.24202645431</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C32" t="n">
-        <v>705.6603521915781</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D32" t="n">
-        <v>277.0786779288464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E32" t="n">
-        <v>277.0786779288464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F32" t="n">
-        <v>277.0786779288464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G32" t="n">
-        <v>277.0786779288464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H32" t="n">
         <v>33.94366860160834</v>
@@ -6703,25 +6703,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N32" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O32" t="n">
-        <v>1277.130531135514</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P32" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q32" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R32" t="n">
         <v>1697.183430080417</v>
@@ -6730,22 +6730,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T32" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U32" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V32" t="n">
-        <v>1134.24202645431</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="W32" t="n">
-        <v>1134.24202645431</v>
+        <v>991.6923035150976</v>
       </c>
       <c r="X32" t="n">
-        <v>1134.24202645431</v>
+        <v>572.5498400944083</v>
       </c>
       <c r="Y32" t="n">
-        <v>1134.24202645431</v>
+        <v>164.2637163940617</v>
       </c>
     </row>
     <row r="33">
@@ -6782,7 +6782,7 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K33" t="n">
-        <v>804.6185656731816</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="L33" t="n">
         <v>1159.957753041174</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>552.97043790589</v>
+        <v>947.1238364150125</v>
       </c>
       <c r="C34" t="n">
-        <v>380.4087263891149</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D34" t="n">
-        <v>380.4087263891149</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E34" t="n">
-        <v>210.6507226398521</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F34" t="n">
-        <v>33.94366860160834</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G34" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H34" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I34" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K34" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L34" t="n">
-        <v>120.5233537662982</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M34" t="n">
-        <v>341.7616130750586</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N34" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="O34" t="n">
-        <v>1181.483761245743</v>
+        <v>1291.875698540254</v>
       </c>
       <c r="P34" t="n">
-        <v>1528.990655216085</v>
+        <v>1639.382592510596</v>
       </c>
       <c r="Q34" t="n">
         <v>1697.183430080417</v>
@@ -6897,13 +6897,13 @@
         <v>1292.062614956869</v>
       </c>
       <c r="W34" t="n">
-        <v>1217.600481977356</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="X34" t="n">
-        <v>972.2087273107688</v>
+        <v>1046.670860290282</v>
       </c>
       <c r="Y34" t="n">
-        <v>744.789056624877</v>
+        <v>1046.670860290282</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>462.2278875652606</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="C35" t="n">
-        <v>462.2278875652606</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="D35" t="n">
-        <v>462.2278875652606</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="E35" t="n">
-        <v>462.2278875652606</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="F35" t="n">
-        <v>34.36045797446834</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H35" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I35" t="n">
         <v>33.94366860160834</v>
@@ -6940,16 +6940,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N35" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O35" t="n">
         <v>687.9235674375537</v>
@@ -6967,22 +6967,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V35" t="n">
-        <v>1697.183430080417</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.183430080417</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X35" t="n">
-        <v>1296.813581750515</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="Y35" t="n">
-        <v>888.5274580501684</v>
+        <v>663.9746246641427</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C36" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D36" t="n">
         <v>338.5686635760967</v>
@@ -7004,10 +7004,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F36" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G36" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H36" t="n">
         <v>33.94366860160834</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>210.6507226398521</v>
+        <v>884.4397056785397</v>
       </c>
       <c r="C37" t="n">
-        <v>210.6507226398521</v>
+        <v>711.8779941617646</v>
       </c>
       <c r="D37" t="n">
-        <v>210.6507226398521</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E37" t="n">
-        <v>210.6507226398521</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F37" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G37" t="n">
         <v>33.94366860160834</v>
@@ -7095,25 +7095,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J37" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K37" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L37" t="n">
-        <v>437.4083829648294</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="M37" t="n">
-        <v>857.4612819097326</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.514180854636</v>
+        <v>815.3347072823371</v>
       </c>
       <c r="O37" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P37" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q37" t="n">
         <v>1697.183430080417</v>
@@ -7122,25 +7122,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S37" t="n">
-        <v>1697.183430080417</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T37" t="n">
-        <v>1697.183430080417</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U37" t="n">
-        <v>1434.262679254597</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V37" t="n">
-        <v>1147.307171125027</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="W37" t="n">
-        <v>875.2807667113186</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="X37" t="n">
-        <v>629.8890120447311</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="Y37" t="n">
-        <v>402.4693413588393</v>
+        <v>1076.258324397527</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="C38" t="n">
-        <v>1268.601755817686</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="D38" t="n">
-        <v>890.8095618279922</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="E38" t="n">
-        <v>462.2278875652606</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="F38" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G38" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H38" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I38" t="n">
         <v>33.94366860160834</v>
@@ -7177,49 +7177,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K38" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L38" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M38" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N38" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O38" t="n">
         <v>874.0494664914149</v>
       </c>
       <c r="P38" t="n">
-        <v>1277.130531135514</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q38" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R38" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S38" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U38" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V38" t="n">
-        <v>1697.183430080417</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W38" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="Y38" t="n">
-        <v>1697.183430080417</v>
+        <v>724.4716545351282</v>
       </c>
     </row>
     <row r="39">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>400.6526303550848</v>
+        <v>718.8484307043673</v>
       </c>
       <c r="C40" t="n">
-        <v>228.0909188383097</v>
+        <v>546.2867191875922</v>
       </c>
       <c r="D40" t="n">
-        <v>228.0909188383097</v>
+        <v>380.4087263891149</v>
       </c>
       <c r="E40" t="n">
         <v>210.6507226398521</v>
@@ -7332,52 +7332,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J40" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K40" t="n">
-        <v>395.2818083374338</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L40" t="n">
-        <v>395.2818083374338</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M40" t="n">
-        <v>815.3347072823371</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N40" t="n">
-        <v>815.3347072823371</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O40" t="n">
-        <v>1181.483761245743</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P40" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q40" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T40" t="n">
-        <v>1429.886162364244</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U40" t="n">
-        <v>1151.45316161735</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V40" t="n">
-        <v>864.4976534877803</v>
+        <v>1655.504879189542</v>
       </c>
       <c r="W40" t="n">
-        <v>592.4712490740719</v>
+        <v>1383.478474775834</v>
       </c>
       <c r="X40" t="n">
-        <v>592.4712490740719</v>
+        <v>1138.086720109246</v>
       </c>
       <c r="Y40" t="n">
-        <v>592.4712490740719</v>
+        <v>910.6670494233545</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1697.183430080417</v>
+        <v>782.3765311903798</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.601755817686</v>
+        <v>462.52534286434</v>
       </c>
       <c r="D41" t="n">
-        <v>840.020081554954</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E41" t="n">
-        <v>411.4384072922223</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H41" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I41" t="n">
         <v>33.94366860160834</v>
@@ -7438,25 +7438,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V41" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W41" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X41" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="Y41" t="n">
-        <v>1697.183430080417</v>
+        <v>1208.676101675288</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1113.00182921349</v>
+        <v>807.508379929692</v>
       </c>
       <c r="C43" t="n">
-        <v>940.4401176967148</v>
+        <v>634.9466684129169</v>
       </c>
       <c r="D43" t="n">
-        <v>774.5621248982375</v>
+        <v>469.0686756144395</v>
       </c>
       <c r="E43" t="n">
-        <v>604.8041211489747</v>
+        <v>299.3106718651768</v>
       </c>
       <c r="F43" t="n">
-        <v>428.0970671107308</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G43" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H43" t="n">
         <v>122.603617826933</v>
@@ -7569,22 +7569,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J43" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K43" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L43" t="n">
-        <v>726.9120049407049</v>
+        <v>689.2685070454004</v>
       </c>
       <c r="M43" t="n">
-        <v>726.9120049407049</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="N43" t="n">
-        <v>761.8145120199619</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O43" t="n">
-        <v>1181.483761245743</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P43" t="n">
         <v>1528.990655216085</v>
@@ -7593,28 +7593,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R43" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S43" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T43" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U43" t="n">
-        <v>1516.524240083786</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V43" t="n">
-        <v>1229.568731954216</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="W43" t="n">
-        <v>1229.568731954216</v>
+        <v>1244.718753315267</v>
       </c>
       <c r="X43" t="n">
-        <v>1229.568731954216</v>
+        <v>999.3269986486791</v>
       </c>
       <c r="Y43" t="n">
-        <v>1229.568731954216</v>
+        <v>999.3269986486791</v>
       </c>
     </row>
     <row r="44">
@@ -7651,22 +7651,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M44" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N44" t="n">
         <v>687.9235674375537</v>
       </c>
       <c r="O44" t="n">
+        <v>687.9235674375537</v>
+      </c>
+      <c r="P44" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q44" t="n">
         <v>1528.02936532736</v>
@@ -7675,25 +7675,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S44" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T44" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U44" t="n">
-        <v>1354.309253581271</v>
+        <v>1266.227710311611</v>
       </c>
       <c r="V44" t="n">
-        <v>991.6923035150976</v>
+        <v>1266.227710311611</v>
       </c>
       <c r="W44" t="n">
-        <v>991.6923035150976</v>
+        <v>861.3722557226442</v>
       </c>
       <c r="X44" t="n">
-        <v>868.5293627868627</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y44" t="n">
-        <v>460.2432390865162</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="45">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1113.00182921349</v>
+        <v>936.2947751752459</v>
       </c>
       <c r="C46" t="n">
-        <v>940.4401176967148</v>
+        <v>763.7330636584709</v>
       </c>
       <c r="D46" t="n">
-        <v>774.5621248982375</v>
+        <v>597.8550708599936</v>
       </c>
       <c r="E46" t="n">
-        <v>604.8041211489747</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F46" t="n">
         <v>428.0970671107308</v>
@@ -7806,25 +7806,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J46" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K46" t="n">
-        <v>33.94366860160834</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L46" t="n">
-        <v>452.1535503695694</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M46" t="n">
-        <v>872.2064493144727</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.514180854636</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O46" t="n">
-        <v>1697.183430080417</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P46" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q46" t="n">
         <v>1697.183430080417</v>
@@ -7839,19 +7839,19 @@
         <v>1516.524240083786</v>
       </c>
       <c r="U46" t="n">
-        <v>1516.524240083786</v>
+        <v>1373.505148560821</v>
       </c>
       <c r="V46" t="n">
-        <v>1229.568731954216</v>
+        <v>1373.505148560821</v>
       </c>
       <c r="W46" t="n">
-        <v>1229.568731954216</v>
+        <v>1373.505148560821</v>
       </c>
       <c r="X46" t="n">
-        <v>1229.568731954216</v>
+        <v>1128.113393894233</v>
       </c>
       <c r="Y46" t="n">
-        <v>1229.568731954216</v>
+        <v>1128.113393894233</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,16 +8142,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8218,10 +8218,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -8379,19 +8379,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.9562613211783</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8455,22 +8455,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -8689,11 +8689,11 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K11" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -8944,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q14" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9002,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q17" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,14 +9242,14 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K18" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L18" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -9485,7 +9485,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
         <v>424.2958575201043</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10038,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>369.8475292559658</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>223.4729892007681</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>58.38468441396094</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,28 +10825,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q38" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O40" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11299,7 +11299,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11308,16 +11308,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697543</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69.49276815683976</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>271.7900527285482</v>
       </c>
     </row>
     <row r="3">
@@ -22710,22 +22710,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>136.300487075127</v>
       </c>
       <c r="G4" t="n">
-        <v>41.21139075364334</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,16 +22752,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>47.60968125113078</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>330.1410925364936</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.9552660335091</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>166.7315638142075</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>198.7882721010237</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -23038,10 +23038,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>372.1048196112441</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>103.9097667323106</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,7 +23196,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.3658583200137</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>118.7246074894275</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>211.764061605235</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>152.3706453934012</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5587197492369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23512,10 +23512,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>143.4904884324132</v>
+        <v>98.19452627478475</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.83779588133098</v>
+        <v>85.19589505337046</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>57.123793448372</v>
       </c>
       <c r="E17" t="n">
         <v>5.14113987318342</v>
@@ -23797,10 +23797,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>20.43155020079337</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>160.2474370261064</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.60968125113078</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24022,19 +24022,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>28.82371641784977</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.83779588133098</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>13.53360822379398</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>59.33415455948301</v>
+        <v>329.4390916670989</v>
       </c>
       <c r="D23" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>397.3838530629687</v>
@@ -24226,7 +24226,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.6300796561533</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0414389630128</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>51.58631836451707</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>161.2403204893318</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24457,10 +24457,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>354.1250124085991</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>96.78810843022222</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>206.2350373732905</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>9.465190568306582</v>
       </c>
       <c r="D29" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>272.8766587200516</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>397.3838530629687</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>94.7981638545188</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24840,7 +24840,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>122.2623284749967</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>184.5261755238626</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>293.0197274655299</v>
       </c>
       <c r="C32" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>7.254829457195569</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -24934,7 +24934,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H32" t="n">
-        <v>45.53519377725019</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
         <v>0.4126214791313976</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>91.34887889528069</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>195.5886287198536</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>195.6897813411185</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -25165,16 +25165,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -25216,10 +25216,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>18.58488893987902</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25362,25 +25362,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>15.3571274218632</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>11.49922632528379</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>9.465190568306582</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>57.53641492750336</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>97.49493275244578</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25554,10 +25554,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.7946294752971</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>242.8241876663074</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>9.465190568306582</v>
+        <v>117.1083716456316</v>
       </c>
       <c r="D41" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E41" t="n">
-        <v>5.14113987318342</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>50.28158547030785</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -25648,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -25690,7 +25690,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>254.6637361264812</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>47.85047194072672</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>293.0197274655299</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.49919881847789</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>134.0597701316899</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>361217.1612724579</v>
+        <v>361217.161272458</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>361217.1612724579</v>
+        <v>361217.161272458</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>361217.1612724579</v>
+        <v>361217.161272458</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>361217.1612724579</v>
+        <v>361217.161272458</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>361217.1612724579</v>
+        <v>361217.161272458</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>361217.1612724579</v>
+        <v>361217.161272458</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="C2" t="n">
+        <v>90151.75317155513</v>
+      </c>
+      <c r="D2" t="n">
         <v>90151.75317155512</v>
       </c>
-      <c r="D2" t="n">
-        <v>90151.75317155514</v>
-      </c>
       <c r="E2" t="n">
-        <v>90151.75317155514</v>
+        <v>90151.75317155513</v>
       </c>
       <c r="F2" t="n">
         <v>90151.75317155512</v>
       </c>
       <c r="G2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155512</v>
       </c>
       <c r="H2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="I2" t="n">
+        <v>90151.75317155512</v>
+      </c>
+      <c r="J2" t="n">
+        <v>90151.75317155512</v>
+      </c>
+      <c r="K2" t="n">
         <v>90151.75317155513</v>
-      </c>
-      <c r="J2" t="n">
-        <v>90151.75317155516</v>
-      </c>
-      <c r="K2" t="n">
-        <v>90151.75317155512</v>
       </c>
       <c r="L2" t="n">
         <v>90151.75317155513</v>
       </c>
       <c r="M2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="N2" t="n">
-        <v>90151.75317155513</v>
+        <v>90151.75317155514</v>
       </c>
       <c r="O2" t="n">
         <v>90151.75317155512</v>
       </c>
       <c r="P2" t="n">
-        <v>90151.7531715551</v>
+        <v>90151.75317155514</v>
       </c>
     </row>
     <row r="3">
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="C4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="D4" t="n">
         <v>31028.66177247689</v>
@@ -26429,10 +26429,10 @@
         <v>31028.66177247689</v>
       </c>
       <c r="F4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="G4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="H4" t="n">
         <v>31028.6617724769</v>
@@ -26447,7 +26447,7 @@
         <v>31028.66177247689</v>
       </c>
       <c r="L4" t="n">
-        <v>31028.6617724769</v>
+        <v>31028.66177247689</v>
       </c>
       <c r="M4" t="n">
         <v>31028.66177247689</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-142492.997397854</v>
+        <v>-143232.3540097697</v>
       </c>
       <c r="C6" t="n">
-        <v>-301.6967381441209</v>
+        <v>-1041.05335005976</v>
       </c>
       <c r="D6" t="n">
-        <v>-301.6967381440918</v>
+        <v>-1041.053350059774</v>
       </c>
       <c r="E6" t="n">
-        <v>33325.90326185591</v>
+        <v>32586.54664994024</v>
       </c>
       <c r="F6" t="n">
-        <v>33325.90326185587</v>
+        <v>32586.54664994022</v>
       </c>
       <c r="G6" t="n">
-        <v>33325.90326185588</v>
+        <v>32586.54664994022</v>
       </c>
       <c r="H6" t="n">
-        <v>33325.90326185588</v>
+        <v>32586.54664994023</v>
       </c>
       <c r="I6" t="n">
-        <v>33325.90326185588</v>
+        <v>32586.54664994022</v>
       </c>
       <c r="J6" t="n">
-        <v>-77688.56208313425</v>
+        <v>-78427.91869504997</v>
       </c>
       <c r="K6" t="n">
-        <v>33325.90326185588</v>
+        <v>32586.54664994024</v>
       </c>
       <c r="L6" t="n">
-        <v>33325.90326185588</v>
+        <v>32586.54664994024</v>
       </c>
       <c r="M6" t="n">
-        <v>33325.90326185589</v>
+        <v>32586.54664994025</v>
       </c>
       <c r="N6" t="n">
-        <v>33325.9032618559</v>
+        <v>32586.54664994025</v>
       </c>
       <c r="O6" t="n">
-        <v>33325.90326185588</v>
+        <v>32586.54664994022</v>
       </c>
       <c r="P6" t="n">
-        <v>33325.90326185587</v>
+        <v>32586.54664994025</v>
       </c>
     </row>
   </sheetData>
@@ -34780,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,16 +34862,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34938,10 +34938,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
@@ -35014,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
@@ -35099,19 +35099,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>296.9562613211783</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35175,22 +35175,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
         <v>424.2958575201044</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q9" t="n">
         <v>424.2958575201044</v>
@@ -35409,11 +35409,11 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K11" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
@@ -35424,7 +35424,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>424.2958575201044</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>358.9284720888815</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q12" t="n">
         <v>424.2958575201044</v>
@@ -35664,10 +35664,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q14" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697544</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L15" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M15" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K17" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35898,16 +35898,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q17" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,14 +35962,14 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K18" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L18" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>424.2958575201044</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>35.25505765581501</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>424.2958575201044</v>
@@ -36205,7 +36205,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L21" t="n">
-        <v>52.98895607821112</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N22" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>237.6484237362511</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N25" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q26" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697544</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>288.7962490401609</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L27" t="n">
         <v>424.2958575201043</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36758,16 +36758,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>369.8475292559658</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M28" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L30" t="n">
-        <v>385.2554146752024</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q30" t="n">
         <v>424.2958575201044</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N31" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K32" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37083,16 +37083,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P32" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="L33" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L33" t="n">
-        <v>358.9284720888814</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>223.4729892007681</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N34" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>58.38468441396094</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>424.2958575201044</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>407.5401155184051</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N37" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>369.8475292559658</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
       <c r="P38" t="n">
-        <v>407.1525905495951</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q38" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>205.1467494379689</v>
       </c>
       <c r="O40" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>296.9562613211783</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N43" t="n">
-        <v>35.25505765581499</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38019,7 +38019,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -38028,16 +38028,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R44" t="n">
         <v>170.8626916697544</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>409.401749030468</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
